--- a/Testing Evals.xlsx
+++ b/Testing Evals.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Queries</t>
   </si>
@@ -878,7 +878,9 @@
       <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
